--- a/data/trans_bre/P32-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.145565886000767</v>
+        <v>-6.015281193533705</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.07105408486585</v>
+        <v>-12.14854009816357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.620805393836544</v>
+        <v>-5.055489724662465</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.21408162205897</v>
+        <v>-10.1473136715443</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8357225687127045</v>
+        <v>-0.8371041600261183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.912957482209559</v>
+        <v>-0.9116416508876677</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5658071634911207</v>
+        <v>-0.5170700581634597</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8255664270848372</v>
+        <v>-0.81134436422381</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.239172114755369</v>
+        <v>1.174781468224782</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.150954212202132</v>
+        <v>-3.667939596179011</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.056352519615234</v>
+        <v>5.609040830071185</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.16150198842955</v>
+        <v>10.27987760708957</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5634659910846288</v>
+        <v>0.5162930674034962</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.3459322657976163</v>
+        <v>-0.3660393005795362</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.100361747617175</v>
+        <v>1.188815210716293</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.34229360270652</v>
+        <v>3.430085213282183</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-3.311722477812845</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-3.810094127308511</v>
+        <v>-3.810094127308512</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5960138672616073</v>
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.676070464125045</v>
+        <v>-3.722416703587212</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.634275923363846</v>
+        <v>-7.579809966413054</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.047628976978257</v>
+        <v>-7.172984016960732</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-9.47494364024123</v>
+        <v>-9.277702001827022</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8073532307003184</v>
+        <v>-0.8142910662674652</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7538439390310926</v>
+        <v>-0.7817968766249485</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8831824628413572</v>
+        <v>-0.8988262688635646</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9521705637613741</v>
+        <v>1.304221783015296</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5249901204335534</v>
+        <v>1.03251084922237</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5303274273414256</v>
+        <v>0.2215910029116719</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.333607671044737</v>
+        <v>1.557632135447794</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9655057307143944</v>
+        <v>1.518754630492706</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1871077821162465</v>
+        <v>0.2318184636737168</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1650402537038158</v>
+        <v>0.1087105618468145</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5253037755368045</v>
+        <v>0.5066261932817275</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.086714287458824</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-4.914566544181585</v>
+        <v>-4.914566544181583</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2028498263359024</v>
@@ -860,28 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.700782682219984</v>
+        <v>-1.543674605636016</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.686231560804937</v>
+        <v>-4.484205728420659</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.491854685770283</v>
+        <v>-4.296642468253968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.800375091532681</v>
-      </c>
-      <c r="G11" s="6" t="n">
+        <v>-8.470799997629371</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.7742230620310693</v>
+      </c>
+      <c r="I11" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="H11" s="6" t="n">
-        <v>-0.7571769435526559</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>-0.9311383635000388</v>
-      </c>
       <c r="J11" s="6" t="n">
-        <v>-0.906999479048711</v>
+        <v>-0.9238835461745105</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +890,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.804324566939547</v>
+        <v>1.961331656159681</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.009152468539301</v>
+        <v>1.760022694079217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09286312296581678</v>
+        <v>-0.007647389129470937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.518862819489317</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>7.638125018965864</v>
-      </c>
+        <v>-1.506753155257441</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>0.7668081968856613</v>
+        <v>0.5100329119468717</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4976301776789209</v>
+        <v>0.2209963640958279</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.1944188227235848</v>
+        <v>-0.2144516120796712</v>
       </c>
     </row>
     <row r="13">
@@ -960,24 +956,24 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.685099990727478</v>
+        <v>-1.721131260444332</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-10.89470734186496</v>
+        <v>-10.96969315803373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.353333440818131</v>
+        <v>-6.360270058966202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.842128089376748</v>
+        <v>-5.076570805054977</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.7846404058239037</v>
+        <v>-0.7732053545189722</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8006118714759339</v>
+        <v>-0.8166835860959779</v>
       </c>
     </row>
     <row r="15">
@@ -988,24 +984,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.252375603104896</v>
+        <v>3.367010920096737</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-4.902391355121159</v>
+        <v>-5.122968786355987</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4202315988273787</v>
+        <v>0.6752143306235067</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8578306989404089</v>
+        <v>0.2889131968138142</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>0.2064388715319848</v>
+        <v>0.1804014497472598</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.414825360487894</v>
+        <v>0.2168674607551701</v>
       </c>
     </row>
     <row r="16">
@@ -1029,7 +1025,7 @@
         <v>-2.563306741531746</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-5.425472708451673</v>
+        <v>-5.425472708451675</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.7500867301054631</v>
@@ -1041,7 +1037,7 @@
         <v>-0.4452319585367569</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.6123330075640174</v>
+        <v>-0.6123330075640175</v>
       </c>
     </row>
     <row r="17">
@@ -1052,16 +1048,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.783641133855183</v>
+        <v>-8.200304342341624</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.267433359965739</v>
+        <v>-5.869918980212203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.745838673737889</v>
+        <v>-6.733947384832745</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.152645183411478</v>
+        <v>-9.209924048362895</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>-1</v>
@@ -1070,10 +1066,10 @@
         <v>-1</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8805699005642468</v>
+        <v>-0.8793274793721816</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.8466821348882947</v>
+        <v>-0.8318232915415017</v>
       </c>
     </row>
     <row r="18">
@@ -1084,28 +1080,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5650678419364946</v>
+        <v>0.533669908570691</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06276014416837244</v>
+        <v>0.5261452374608405</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.44741630897277</v>
+        <v>2.621074250143075</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.302549895600696</v>
+        <v>-1.580907648195802</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.176344575274193</v>
+        <v>0.5969811118903912</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.226790328452645</v>
+        <v>1.402118877620237</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9212860169081222</v>
+        <v>0.9535255714829055</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1089518346112353</v>
+        <v>-0.1728041812088338</v>
       </c>
     </row>
     <row r="19">
@@ -1129,7 +1125,7 @@
         <v>0.4277541109489672</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-4.249756675177963</v>
+        <v>-4.249756675177964</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-1</v>
@@ -1152,22 +1148,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.46251840493137</v>
+        <v>-6.67327694972361</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-12.03669100399184</v>
+        <v>-12.96820082002557</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.756210005741723</v>
+        <v>-1.822351270248816</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-8.156790244954992</v>
+        <v>-7.910327176524351</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.9306326151496728</v>
+        <v>-0.9228005253835191</v>
       </c>
     </row>
     <row r="21">
@@ -1181,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-3.042450319079376</v>
+        <v>-3.097060669527122</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.712824187539883</v>
+        <v>6.517439892276141</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-0.5892810771016823</v>
+        <v>-0.08098946331380646</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>0.1471662706259492</v>
+        <v>0.06802456587958534</v>
       </c>
     </row>
     <row r="22">
@@ -1240,16 +1236,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.031760169337973</v>
+        <v>-6.88695071848274</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.72528292094735</v>
+        <v>-12.78360838285811</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.071170961643075</v>
+        <v>-8.511852012656648</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.21632951217702</v>
+        <v>-1.001502020514542</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
@@ -1273,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.51991254985151</v>
+        <v>11.63360136790661</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
@@ -1301,7 +1297,7 @@
         <v>-2.003965908189488</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-3.048362875924135</v>
+        <v>-3.048362875924134</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.4593916467689654</v>
@@ -1313,7 +1309,7 @@
         <v>-0.3811339446698576</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.4691831168592134</v>
+        <v>-0.4691831168592133</v>
       </c>
     </row>
     <row r="26">
@@ -1324,28 +1320,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.315676661711513</v>
+        <v>-2.355894450501183</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-6.087289620827785</v>
+        <v>-6.134478069253145</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-3.403424983727524</v>
+        <v>-3.460012287130276</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-4.801769284458444</v>
+        <v>-5.039948303098669</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7403519712593938</v>
+        <v>-0.7265522166204206</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8097070352664865</v>
+        <v>-0.8047115401946162</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5679299537330806</v>
+        <v>-0.5847126988641878</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6392610166431</v>
+        <v>-0.6612507445450537</v>
       </c>
     </row>
     <row r="27">
@@ -1356,28 +1352,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-0.07547619488036342</v>
+        <v>-0.03754927254446462</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-3.06640672631763</v>
+        <v>-3.135448813304663</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-0.3558297069517118</v>
+        <v>-0.5701889687640828</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-0.9988692906327408</v>
+        <v>-1.284787417336118</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.02456453440379503</v>
+        <v>0.04302555009901984</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.4934150937630316</v>
+        <v>-0.4920998266354251</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.06619411337490948</v>
+        <v>-0.1222837039667693</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1440253942316167</v>
+        <v>-0.1954339101711324</v>
       </c>
     </row>
     <row r="28">
